--- a/src/attributions/attributions_saliency_traj_498.xlsx
+++ b/src/attributions/attributions_saliency_traj_498.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001643826253712177</v>
+        <v>4.089051230948826e-07</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000145609665196389</v>
+        <v>8.053326610024669e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001528652501292527</v>
+        <v>1.380507001158549e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001490839873440564</v>
+        <v>1.005288027045026e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003077681874856353</v>
+        <v>1.207039076689398e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003375908359885216</v>
+        <v>2.764216162631783e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002972857328131795</v>
+        <v>3.066809028950956e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001259959652088583</v>
+        <v>9.41105156471167e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003698918153531849</v>
+        <v>1.09029906525393e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001930864062160254</v>
+        <v>1.118391196541779e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008554999367333949</v>
+        <v>3.335699716444651e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001974014157894999</v>
+        <v>9.977786703530001e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0008887499570846558</v>
+        <v>8.651029759221274e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0004186159931123257</v>
+        <v>7.383381444014958e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003358540125191212</v>
+        <v>7.171939842010033e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00378314801491797</v>
+        <v>2.078065506339044e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.63464015815407e-05</v>
+        <v>1.169199990158631e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0003829569905065</v>
+        <v>1.02104809229786e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000347020773915574</v>
+        <v>1.283908090954355e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.086558040697128e-05</v>
+        <v>5.693678986062878e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003214794560335577</v>
+        <v>1.548960852915116e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001875493675470352</v>
+        <v>5.01625095239433e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0005645423661917448</v>
+        <v>6.0182046013324e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0009020958095788956</v>
+        <v>1.250890136361704e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.38252866640687e-05</v>
+        <v>3.461272513050062e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001171157229691744</v>
+        <v>4.259412378360139e-07</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001137312268838286</v>
+        <v>2.482625660604754e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0006200423231348395</v>
+        <v>1.427477229754004e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002616606070660055</v>
+        <v>1.179324939926119e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0004961149534210563</v>
+        <v>7.858420048023618e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0001958483771886677</v>
+        <v>9.713905768649056e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.148733569309115e-05</v>
+        <v>8.480157731582949e-08</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.250216882908717e-06</v>
+        <v>9.10738322090765e-07</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0002237880835309625</v>
+        <v>3.540925490597147e-07</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.668464240850881e-05</v>
+        <v>7.09831397216476e-07</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0003641829534899443</v>
+        <v>8.691353627909848e-07</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0002229837700724602</v>
+        <v>5.911543894399074e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.051771247759461e-05</v>
+        <v>1.21287803267478e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001938708010129631</v>
+        <v>1.184063549430903e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001135441241785884</v>
+        <v>5.027725364925573e-07</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0007243327563628554</v>
+        <v>5.588416343016434e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001700910070212558</v>
+        <v>5.846187605129671e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0007047471008263528</v>
+        <v>1.395807771586988e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.001106600160710514</v>
+        <v>3.924198779259314e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0005631091771647334</v>
+        <v>5.996668051011511e-07</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.654159657657146e-05</v>
+        <v>2.186326497621849e-08</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0007839477038942277</v>
+        <v>1.19460537462146e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0003061928728129715</v>
+        <v>1.848224883360672e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0004405026265885681</v>
+        <v>3.41252473390341e-07</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000717632588930428</v>
+        <v>2.490480255801231e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0001594974164618179</v>
+        <v>8.093959422694752e-07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.002254553139209747</v>
+        <v>2.413107580423457e-08</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.2520445024129e-06</v>
+        <v>6.23518758402497e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.001163180684670806</v>
+        <v>5.320272293829476e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.001132126664742827</v>
+        <v>1.474109012633562e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0001141034299507737</v>
+        <v>7.797910370754835e-07</v>
       </c>
       <c r="BE2" t="n">
-        <v>8.614297257736325e-07</v>
+        <v>1.362147372674372e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0001988515723496675</v>
+        <v>1.217049145907367e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.002198678441345692</v>
+        <v>1.298743768529675e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.003318294417113066</v>
+        <v>9.039922019837832e-07</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.001379348337650299</v>
+        <v>2.178318254664191e-07</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0001399791653966531</v>
+        <v>7.301866276065994e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0005113729275763035</v>
+        <v>1.317755732088699e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0001596939109731466</v>
+        <v>5.313885935720464e-07</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0004262998700141907</v>
+        <v>1.08029053080827e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0006164276273921132</v>
+        <v>2.962742087220249e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0007363780168816447</v>
+        <v>2.709652449084388e-07</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.001037650508806109</v>
+        <v>8.193271128220658e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001489165588282049</v>
+        <v>1.45426417930139e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.000818230677396059</v>
+        <v>1.642339952923066e-08</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0008711718255653977</v>
+        <v>4.82374389321194e-07</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0004699904529843479</v>
+        <v>5.19932427778258e-07</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.70796478819102e-05</v>
+        <v>3.180725798301864e-07</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0007926943944767118</v>
+        <v>8.057963327701145e-07</v>
       </c>
       <c r="BW2" t="n">
-        <v>6.047755596227944e-05</v>
+        <v>4.421047208325035e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.001424839254468679</v>
+        <v>4.514459917004388e-08</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001883317600004375</v>
+        <v>6.538748493767343e-07</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.001143771572969854</v>
+        <v>3.35234574322385e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00116539397276938</v>
+        <v>4.65071906319281e-07</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002067671593977138</v>
+        <v>4.762139269587351e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0001416148734278977</v>
+        <v>6.611405751755228e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0003872982051689178</v>
+        <v>2.049637544132565e-07</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.386274379910901e-05</v>
+        <v>6.912874823683524e-07</v>
       </c>
       <c r="CF2" t="n">
-        <v>4.6306595322676e-06</v>
+        <v>6.826665810422128e-08</v>
       </c>
       <c r="CG2" t="n">
-        <v>8.70584772201255e-05</v>
+        <v>4.611612780536234e-08</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0006407176842913032</v>
+        <v>1.370663795796645e-07</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0001454388839192688</v>
+        <v>5.628583608086046e-07</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0007635087240487337</v>
+        <v>3.56272877866104e-08</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0007578894728794694</v>
+        <v>6.191858403781225e-08</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.106651951791719e-05</v>
+        <v>1.419052608753191e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0009812553180381656</v>
+        <v>3.532217647261859e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001537918811663985</v>
+        <v>5.761768306911108e-08</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0004272851510904729</v>
+        <v>1.585953327776224e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.003540134755894542</v>
+        <v>5.557802751354757e-07</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00100925425067544</v>
+        <v>3.628826448220934e-07</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0008902903064154088</v>
+        <v>7.459489665961883e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001304370001889765</v>
+        <v>3.990782033724827e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0003162030188832432</v>
+        <v>6.197516313477536e-07</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.001079340581782162</v>
+        <v>1.135390562012617e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003257132193539292</v>
+        <v>2.349949141944307e-07</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0002864674315787852</v>
+        <v>4.530272974534455e-07</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0002048553724307567</v>
+        <v>1.761210057793505e-07</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002060196420643479</v>
+        <v>1.609751762998712e-07</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0007590967579744756</v>
+        <v>1.513653131723913e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0002694062131922692</v>
+        <v>4.966707933817816e-07</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.000719577947165817</v>
+        <v>3.336157661237849e-08</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.000363916828064248</v>
+        <v>2.822811140390513e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0002198379079345614</v>
+        <v>3.67783002275246e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0001633820793358609</v>
+        <v>7.632844756244594e-08</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0003818410914391279</v>
+        <v>1.175982333734282e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0009074721019715071</v>
+        <v>2.489552116458071e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.001224282197654247</v>
+        <v>5.8129091939918e-07</v>
       </c>
       <c r="DI2" t="n">
-        <v>9.416294051334262e-05</v>
+        <v>3.55683482666791e-07</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001030832063406706</v>
+        <v>8.90237572548358e-09</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0004258678527548909</v>
+        <v>7.133975543638371e-08</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0002232669066870585</v>
+        <v>3.158232402711292e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0005312638822942972</v>
+        <v>1.615059886717063e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.000625796034000814</v>
+        <v>1.945755201404609e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.000622271210886538</v>
+        <v>1.343284793620114e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0003772149793803692</v>
+        <v>4.810593168258492e-07</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.370764559600502e-05</v>
+        <v>4.064029468509034e-08</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0007182193803600967</v>
+        <v>1.276055058951897e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0003397484833840281</v>
+        <v>2.972037691506557e-07</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0002313574368599802</v>
+        <v>1.396256621433167e-08</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0002953047805931419</v>
+        <v>1.113065195568197e-08</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001098537002690136</v>
+        <v>5.283731638883182e-07</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.577841562218964e-05</v>
+        <v>1.936843574412705e-07</v>
       </c>
       <c r="DX2" t="n">
-        <v>5.793548189103603e-05</v>
+        <v>4.386969862935075e-07</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0002338150516152382</v>
+        <v>1.092254731105413e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0007838812307454646</v>
+        <v>1.287325517296267e-07</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0007918713381513953</v>
+        <v>6.503431109194935e-07</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0008586752228438854</v>
+        <v>6.943620292076957e-07</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001648126402869821</v>
+        <v>5.239046458882513e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001761944440659136</v>
+        <v>1.100239686024906e-07</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0003574389847926795</v>
+        <v>8.176198775800003e-07</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0007294726674444973</v>
+        <v>1.071017265985574e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0002790720900520682</v>
+        <v>1.850325475061254e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0009705413831397891</v>
+        <v>5.247462695479044e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>4.436397284734994e-05</v>
+        <v>6.13075258115714e-07</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00119797745719552</v>
+        <v>4.480541804241511e-07</v>
       </c>
       <c r="EK2" t="n">
-        <v>4.601806722348556e-05</v>
+        <v>1.451928255846724e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.000373424292774871</v>
+        <v>5.236450917323054e-08</v>
       </c>
       <c r="EM2" t="n">
-        <v>4.291600635042414e-05</v>
+        <v>1.844484813773306e-07</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0001866333186626434</v>
+        <v>3.467153533165401e-07</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.377433702349663e-06</v>
+        <v>4.290657784622454e-07</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0005534724332392216</v>
+        <v>1.225135406457412e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0001463501976104453</v>
+        <v>3.81407005534129e-07</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0004089627182111144</v>
+        <v>1.779604019702674e-08</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.000807069125585258</v>
+        <v>5.720253852814494e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0004839551402255893</v>
+        <v>2.348162269072418e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001439830812159926</v>
+        <v>2.242722985101864e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.001056015258654952</v>
+        <v>3.635973939708492e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.001077984692528844</v>
+        <v>3.754068416128575e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0006100347964093089</v>
+        <v>3.169605804487219e-07</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.933108771685511e-05</v>
+        <v>5.140867074260314e-07</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0001228980399901047</v>
+        <v>1.208078401759849e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0002774344757199287</v>
+        <v>7.917712707694591e-08</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0007990137091837823</v>
+        <v>2.375628938011687e-08</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.000391430949093774</v>
+        <v>4.45499608758837e-07</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0004010701959487051</v>
+        <v>4.086135518832634e-08</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001722482120385394</v>
+        <v>1.764624073530285e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0002010445023188367</v>
+        <v>1.634078756751478e-07</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0007617715164087713</v>
+        <v>6.732081914151422e-08</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0007234819931909442</v>
+        <v>4.678804543800652e-08</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.001482225838117301</v>
+        <v>6.896391369082266e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0005050673498772085</v>
+        <v>2.469446087616234e-07</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0007712227525189519</v>
+        <v>2.086875383611186e-07</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001113453472498804</v>
+        <v>2.838392560988723e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.587352694012225e-05</v>
+        <v>1.846205179845128e-07</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0004032875876873732</v>
+        <v>3.066781175675715e-07</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.001821113983169198</v>
+        <v>5.896210808487012e-08</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0008288791286759079</v>
+        <v>5.598084840130468e-08</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002387411426752806</v>
+        <v>6.726265269207943e-07</v>
       </c>
       <c r="FR2" t="n">
-        <v>8.095853263512254e-05</v>
+        <v>2.760918960120762e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.002666366752237082</v>
+        <v>2.520935140637448e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>4.657356475945562e-05</v>
+        <v>1.214608573718579e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0009818237740546465</v>
+        <v>4.146104970459419e-07</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.000457586080301553</v>
+        <v>1.107304328229475e-07</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.001578515395522118</v>
+        <v>7.975422704475932e-07</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0005997117841616273</v>
+        <v>1.207971990879741e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0009082149481400847</v>
+        <v>4.176984020887176e-07</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00114001426845789</v>
+        <v>1.355893601839853e-07</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0005245094653218985</v>
+        <v>6.560015322065738e-07</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.000381480174837634</v>
+        <v>5.614477913695737e-07</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0003861791337840259</v>
+        <v>4.29296875381624e-07</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.001987121300771832</v>
+        <v>2.041853349510347e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0003174730809405446</v>
+        <v>6.265531737881247e-08</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00227162754163146</v>
+        <v>6.636099101342552e-07</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0006269878940656781</v>
+        <v>3.58435357838971e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.258316953884787e-06</v>
+        <v>2.064320043057339e-17</v>
       </c>
       <c r="B3" t="n">
-        <v>1.248365890660352e-07</v>
+        <v>4.986912680814287e-19</v>
       </c>
       <c r="C3" t="n">
-        <v>6.830039183114422e-07</v>
+        <v>4.867791951764174e-19</v>
       </c>
       <c r="D3" t="n">
-        <v>6.081118044676259e-07</v>
+        <v>8.221942127241932e-19</v>
       </c>
       <c r="E3" t="n">
-        <v>3.700047841448395e-07</v>
+        <v>2.143067285820627e-19</v>
       </c>
       <c r="F3" t="n">
-        <v>1.809240046668492e-07</v>
+        <v>2.663546387839126e-17</v>
       </c>
       <c r="G3" t="n">
-        <v>3.042819116672035e-07</v>
+        <v>2.818981379756082e-19</v>
       </c>
       <c r="H3" t="n">
-        <v>1.624616743356455e-07</v>
+        <v>3.127828803594727e-18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.201668394263834e-06</v>
+        <v>1.596964196376766e-18</v>
       </c>
       <c r="J3" t="n">
-        <v>1.372972292301711e-06</v>
+        <v>1.311793473403957e-17</v>
       </c>
       <c r="K3" t="n">
-        <v>9.342041806803536e-08</v>
+        <v>4.319661235843793e-20</v>
       </c>
       <c r="L3" t="n">
-        <v>6.260216878217761e-07</v>
+        <v>3.739865115496694e-18</v>
       </c>
       <c r="M3" t="n">
-        <v>4.650490552648989e-07</v>
+        <v>9.952333141362916e-19</v>
       </c>
       <c r="N3" t="n">
-        <v>1.547780357213924e-07</v>
+        <v>1.332228556846773e-18</v>
       </c>
       <c r="O3" t="n">
-        <v>8.460125400233665e-08</v>
+        <v>1.903689839905666e-17</v>
       </c>
       <c r="P3" t="n">
-        <v>3.28552829387263e-07</v>
+        <v>1.759799249451199e-18</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.389994335771917e-07</v>
+        <v>4.954037628139286e-18</v>
       </c>
       <c r="R3" t="n">
-        <v>2.159084942832123e-06</v>
+        <v>9.581100686303711e-19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.69945218178691e-07</v>
+        <v>4.550879310157985e-18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.920120240583856e-07</v>
+        <v>6.359939026243095e-18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.009237138305252e-09</v>
+        <v>1.457116492525183e-18</v>
       </c>
       <c r="V3" t="n">
-        <v>7.800138632774178e-07</v>
+        <v>1.482428012474152e-18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.394907880898245e-07</v>
+        <v>4.107008816788049e-18</v>
       </c>
       <c r="X3" t="n">
-        <v>1.057790726122221e-07</v>
+        <v>2.213409174148488e-19</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.244932713641902e-07</v>
+        <v>1.210750466448461e-18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.407405534337158e-07</v>
+        <v>1.311456397304342e-18</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.56539067322592e-07</v>
+        <v>5.749552526072865e-19</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.365054285746737e-07</v>
+        <v>5.669755653150793e-18</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.417902180695819e-07</v>
+        <v>2.53321973963318e-18</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.590696735500387e-07</v>
+        <v>2.972469602101395e-18</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.565059453729646e-08</v>
+        <v>2.446374253916391e-18</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.482172926145722e-07</v>
+        <v>2.134182228668465e-18</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.138594368261693e-07</v>
+        <v>3.605735297629382e-18</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.602808078539965e-07</v>
+        <v>3.112590689145428e-18</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.808409422210389e-07</v>
+        <v>2.328299184558122e-18</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.277135055488543e-07</v>
+        <v>4.425518123771619e-19</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.920097585956682e-07</v>
+        <v>2.32141704186168e-18</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.327806392088405e-08</v>
+        <v>9.963025484755929e-19</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.016582444890446e-07</v>
+        <v>4.416705238127902e-18</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.817690945126742e-08</v>
+        <v>1.821187217840903e-18</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.891587389645792e-08</v>
+        <v>5.998969194248682e-19</v>
       </c>
       <c r="AP3" t="n">
-        <v>8.499815749019035e-07</v>
+        <v>4.374410252637147e-19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.699368443856656e-08</v>
+        <v>3.311847900457854e-19</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.634376793433148e-08</v>
+        <v>1.524807370387388e-18</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.992472498102416e-08</v>
+        <v>7.391050575665838e-19</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.232814838658669e-06</v>
+        <v>9.719898284367659e-18</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.908399091618776e-07</v>
+        <v>8.443175614574725e-18</v>
       </c>
       <c r="AV3" t="n">
-        <v>9.421365803063964e-07</v>
+        <v>2.095615759788793e-18</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.699963204122469e-07</v>
+        <v>2.410813138997277e-18</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.776385367222247e-07</v>
+        <v>5.597159801051302e-18</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.294596015417483e-07</v>
+        <v>1.068061645346941e-17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.656156254943198e-07</v>
+        <v>9.776391825072887e-19</v>
       </c>
       <c r="BA3" t="n">
-        <v>9.629852115722315e-08</v>
+        <v>4.625661193821301e-19</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.070043140316557e-06</v>
+        <v>3.246889872243159e-18</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.428304751196265e-07</v>
+        <v>5.92170659592832e-18</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.649580086559581e-08</v>
+        <v>1.171153992270037e-17</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.565209117870836e-08</v>
+        <v>2.410698574482438e-18</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.205789826348337e-07</v>
+        <v>5.377314632979102e-18</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.515088001724507e-07</v>
+        <v>6.393867907018489e-18</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.160984564625323e-07</v>
+        <v>5.906958379196806e-18</v>
       </c>
       <c r="BI3" t="n">
-        <v>3.035311735288815e-08</v>
+        <v>1.827600142334874e-18</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.988544084952082e-08</v>
+        <v>9.30702059418886e-19</v>
       </c>
       <c r="BK3" t="n">
-        <v>6.107145509304246e-07</v>
+        <v>1.155402777686772e-19</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.929241418314632e-07</v>
+        <v>2.116262394673269e-18</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.604305595037658e-07</v>
+        <v>5.76728190173202e-18</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.405410211598792e-07</v>
+        <v>6.674185354542296e-18</v>
       </c>
       <c r="BO3" t="n">
-        <v>8.89333122700009e-08</v>
+        <v>2.213537387143433e-19</v>
       </c>
       <c r="BP3" t="n">
-        <v>8.04448063718155e-08</v>
+        <v>2.122737771303488e-18</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.160304137215462e-07</v>
+        <v>1.825326636421272e-18</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.067412054884699e-07</v>
+        <v>2.574651355359583e-20</v>
       </c>
       <c r="BS3" t="n">
-        <v>4.229410990319593e-07</v>
+        <v>1.236822785765826e-18</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.659705191059402e-07</v>
+        <v>5.448108265318994e-19</v>
       </c>
       <c r="BU3" t="n">
-        <v>4.105829987111065e-07</v>
+        <v>5.528863220185555e-18</v>
       </c>
       <c r="BV3" t="n">
-        <v>7.998414019994016e-08</v>
+        <v>4.545946418575025e-18</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.420236739908432e-07</v>
+        <v>2.179730515508391e-18</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.11165456676099e-07</v>
+        <v>9.661994814308334e-19</v>
       </c>
       <c r="BY3" t="n">
-        <v>9.369558462424266e-09</v>
+        <v>1.844598290332532e-18</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.040650759482787e-09</v>
+        <v>2.34093043930696e-18</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.659274116467714e-07</v>
+        <v>2.893741446530742e-20</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.412519310406424e-07</v>
+        <v>5.39878038346516e-18</v>
       </c>
       <c r="CC3" t="n">
-        <v>8.0647117783883e-07</v>
+        <v>7.041650001911322e-19</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.851322165042802e-07</v>
+        <v>4.120621314538527e-18</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.56564553321914e-07</v>
+        <v>2.746961090266563e-19</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.366592243812192e-07</v>
+        <v>2.348695804102454e-18</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.04655762559014e-07</v>
+        <v>5.460945591437934e-19</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.976811330768214e-08</v>
+        <v>4.131742085790055e-19</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.601441088742831e-08</v>
+        <v>4.285992503371048e-18</v>
       </c>
       <c r="CJ3" t="n">
-        <v>6.842748234703322e-08</v>
+        <v>6.581588688821579e-19</v>
       </c>
       <c r="CK3" t="n">
-        <v>3.120946345802622e-08</v>
+        <v>2.354008371586576e-18</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.470673561878357e-07</v>
+        <v>7.307522394398116e-19</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.639253580127843e-07</v>
+        <v>1.064813369119991e-18</v>
       </c>
       <c r="CN3" t="n">
-        <v>4.864526204073627e-07</v>
+        <v>1.128084517571749e-17</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.334637656531413e-07</v>
+        <v>4.091681987218054e-19</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.422512667659248e-07</v>
+        <v>1.611329635279822e-18</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.667023923346278e-07</v>
+        <v>2.602621847387604e-18</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.344493796295865e-07</v>
+        <v>4.407456531698947e-18</v>
       </c>
       <c r="CS3" t="n">
-        <v>3.642975627826672e-07</v>
+        <v>7.251238957568477e-19</v>
       </c>
       <c r="CT3" t="n">
-        <v>7.238032395662231e-09</v>
+        <v>4.886037591523139e-18</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.259012319427711e-07</v>
+        <v>1.107142579208591e-18</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.828929837050964e-07</v>
+        <v>3.780549166744502e-18</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.364148261018272e-07</v>
+        <v>6.176237101446093e-19</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.825704528841015e-10</v>
+        <v>3.747093846869794e-18</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.045871798055487e-07</v>
+        <v>1.343974935135333e-18</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4.567618461237544e-08</v>
+        <v>5.017022055111218e-19</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.066960564344299e-07</v>
+        <v>4.455705976829165e-18</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.817795063947415e-08</v>
+        <v>6.593512497351531e-19</v>
       </c>
       <c r="DC3" t="n">
-        <v>5.782426626410597e-08</v>
+        <v>2.099586226729047e-18</v>
       </c>
       <c r="DD3" t="n">
-        <v>3.985916521287436e-07</v>
+        <v>2.266701939473442e-18</v>
       </c>
       <c r="DE3" t="n">
-        <v>3.337560201543965e-07</v>
+        <v>3.764774005282503e-18</v>
       </c>
       <c r="DF3" t="n">
-        <v>5.382754153515634e-08</v>
+        <v>5.355787671127716e-19</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.045164140123234e-06</v>
+        <v>5.165117576850568e-18</v>
       </c>
       <c r="DH3" t="n">
-        <v>5.893521759503528e-08</v>
+        <v>5.050589044368619e-18</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.118104897557259e-08</v>
+        <v>1.697445092747002e-17</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.408527848274389e-07</v>
+        <v>8.665105691380865e-19</v>
       </c>
       <c r="DK3" t="n">
-        <v>4.725753512957453e-07</v>
+        <v>1.472470283013268e-19</v>
       </c>
       <c r="DL3" t="n">
-        <v>2.852243596862536e-07</v>
+        <v>2.87140426126936e-18</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.75969664897957e-08</v>
+        <v>5.789363488184123e-18</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.808933743381203e-07</v>
+        <v>1.793732679719962e-18</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.585783024893317e-07</v>
+        <v>3.451661534807958e-18</v>
       </c>
       <c r="DP3" t="n">
-        <v>3.288037362381147e-07</v>
+        <v>2.664510260047903e-18</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.113274319981429e-07</v>
+        <v>9.616570190969985e-19</v>
       </c>
       <c r="DR3" t="n">
-        <v>1.909379392373012e-07</v>
+        <v>8.570601960757907e-18</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.653283814879615e-08</v>
+        <v>3.633109082243023e-19</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.359458761702626e-07</v>
+        <v>2.341521666649782e-18</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.41180393598006e-07</v>
+        <v>3.05953884017388e-18</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.241275882080117e-08</v>
+        <v>7.804050998768025e-19</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.581263688876788e-07</v>
+        <v>2.463113907972627e-18</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.827260689424293e-07</v>
+        <v>2.205486851831761e-18</v>
       </c>
       <c r="DY3" t="n">
-        <v>6.098353821926139e-08</v>
+        <v>5.848913874843041e-18</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.968946155590402e-08</v>
+        <v>5.083943034618289e-18</v>
       </c>
       <c r="EA3" t="n">
-        <v>9.623679630976767e-08</v>
+        <v>4.657741946313098e-18</v>
       </c>
       <c r="EB3" t="n">
-        <v>3.10946042247906e-08</v>
+        <v>4.967827969721464e-18</v>
       </c>
       <c r="EC3" t="n">
-        <v>6.060906443394742e-09</v>
+        <v>1.479993516533832e-18</v>
       </c>
       <c r="ED3" t="n">
-        <v>2.02174831542834e-07</v>
+        <v>5.212694730937933e-19</v>
       </c>
       <c r="EE3" t="n">
-        <v>2.30483223617739e-07</v>
+        <v>2.702151113822129e-18</v>
       </c>
       <c r="EF3" t="n">
-        <v>5.393090987126925e-07</v>
+        <v>2.564123620908468e-18</v>
       </c>
       <c r="EG3" t="n">
-        <v>6.067695039746468e-07</v>
+        <v>1.021692133594872e-19</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.05619776036292e-07</v>
+        <v>3.794657972862512e-18</v>
       </c>
       <c r="EI3" t="n">
-        <v>3.998095365886911e-08</v>
+        <v>2.978708405076423e-18</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.827341833404716e-07</v>
+        <v>3.515864605617334e-18</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.283222417214347e-07</v>
+        <v>3.121036616789901e-18</v>
       </c>
       <c r="EL3" t="n">
-        <v>3.407537860766752e-07</v>
+        <v>8.119807552070595e-19</v>
       </c>
       <c r="EM3" t="n">
-        <v>5.146454640225784e-08</v>
+        <v>6.522492837909259e-19</v>
       </c>
       <c r="EN3" t="n">
-        <v>5.705912258235912e-07</v>
+        <v>2.320165104004581e-19</v>
       </c>
       <c r="EO3" t="n">
-        <v>3.255350407016522e-07</v>
+        <v>2.165930868144322e-18</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.301153140786937e-08</v>
+        <v>1.390356503044829e-18</v>
       </c>
       <c r="EQ3" t="n">
-        <v>2.701590915421548e-07</v>
+        <v>5.813358343393062e-18</v>
       </c>
       <c r="ER3" t="n">
-        <v>2.028224912464793e-07</v>
+        <v>1.891211365415967e-18</v>
       </c>
       <c r="ES3" t="n">
-        <v>2.611971616772735e-08</v>
+        <v>6.069188763243462e-18</v>
       </c>
       <c r="ET3" t="n">
-        <v>2.698185710414691e-07</v>
+        <v>4.374477254266764e-18</v>
       </c>
       <c r="EU3" t="n">
-        <v>6.198591506745288e-08</v>
+        <v>9.647611694419686e-20</v>
       </c>
       <c r="EV3" t="n">
-        <v>5.111250089839814e-08</v>
+        <v>3.936005768754961e-18</v>
       </c>
       <c r="EW3" t="n">
-        <v>3.813744626768312e-07</v>
+        <v>8.87519612528438e-19</v>
       </c>
       <c r="EX3" t="n">
-        <v>2.390147244568652e-07</v>
+        <v>3.58892864194353e-18</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.770537920720017e-07</v>
+        <v>1.244465417637933e-18</v>
       </c>
       <c r="EZ3" t="n">
-        <v>8.535579354429501e-09</v>
+        <v>3.451649954279383e-18</v>
       </c>
       <c r="FA3" t="n">
-        <v>1.710668868781795e-07</v>
+        <v>1.054537407767821e-18</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.017808202163906e-07</v>
+        <v>2.826413856053813e-19</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.505648015154293e-07</v>
+        <v>4.142108571720511e-18</v>
       </c>
       <c r="FD3" t="n">
-        <v>4.671161946134816e-08</v>
+        <v>5.981439169117152e-19</v>
       </c>
       <c r="FE3" t="n">
-        <v>7.168954851977105e-08</v>
+        <v>2.536402523835131e-18</v>
       </c>
       <c r="FF3" t="n">
-        <v>4.063902565576427e-07</v>
+        <v>1.451601058995832e-18</v>
       </c>
       <c r="FG3" t="n">
-        <v>2.420767373223498e-07</v>
+        <v>9.66173425241538e-19</v>
       </c>
       <c r="FH3" t="n">
-        <v>3.178383565227705e-07</v>
+        <v>6.343514114409936e-18</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.374638856077581e-07</v>
+        <v>4.471284269305376e-18</v>
       </c>
       <c r="FJ3" t="n">
-        <v>5.829890028508089e-07</v>
+        <v>3.470444945362659e-18</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.512876792730822e-07</v>
+        <v>3.667842499561701e-18</v>
       </c>
       <c r="FL3" t="n">
-        <v>4.604785530659683e-08</v>
+        <v>2.7781952751002e-18</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.712969321943092e-07</v>
+        <v>6.517823403351398e-19</v>
       </c>
       <c r="FN3" t="n">
-        <v>2.806502550356527e-07</v>
+        <v>2.838995945254992e-18</v>
       </c>
       <c r="FO3" t="n">
-        <v>2.142908215319039e-07</v>
+        <v>3.924301576677642e-18</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.204246871111536e-07</v>
+        <v>2.504723160735575e-18</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3.11524985363576e-07</v>
+        <v>6.357328857820184e-18</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.422200455181155e-07</v>
+        <v>6.991388439941069e-18</v>
       </c>
       <c r="FS3" t="n">
-        <v>3.581989460599289e-07</v>
+        <v>6.449229451055438e-19</v>
       </c>
       <c r="FT3" t="n">
-        <v>3.098445233717939e-08</v>
+        <v>3.899209466386152e-18</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.017223993926564e-07</v>
+        <v>1.437378929133902e-18</v>
       </c>
       <c r="FV3" t="n">
-        <v>3.996685222773522e-07</v>
+        <v>1.074818945809433e-18</v>
       </c>
       <c r="FW3" t="n">
-        <v>2.525564184452378e-07</v>
+        <v>8.709632823754594e-20</v>
       </c>
       <c r="FX3" t="n">
-        <v>4.126008263938274e-07</v>
+        <v>1.497809332566999e-18</v>
       </c>
       <c r="FY3" t="n">
-        <v>2.04796322123002e-08</v>
+        <v>2.36150614345391e-18</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.047138837861894e-07</v>
+        <v>3.599294455789738e-18</v>
       </c>
       <c r="GA3" t="n">
-        <v>5.518678847238334e-09</v>
+        <v>2.013206650492278e-19</v>
       </c>
       <c r="GB3" t="n">
-        <v>2.445299287501257e-07</v>
+        <v>2.851053757044177e-18</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.426477069799148e-07</v>
+        <v>5.673266621260775e-18</v>
       </c>
       <c r="GD3" t="n">
-        <v>3.110550039764348e-08</v>
+        <v>3.436940201446352e-18</v>
       </c>
       <c r="GE3" t="n">
-        <v>8.382343708035478e-09</v>
+        <v>2.30124065915544e-18</v>
       </c>
       <c r="GF3" t="n">
-        <v>1.84122814772536e-08</v>
+        <v>4.662469283513838e-18</v>
       </c>
       <c r="GG3" t="n">
-        <v>2.507897534087533e-07</v>
+        <v>3.527514203774224e-18</v>
       </c>
     </row>
     <row r="4">
